--- a/data/manual/deducao_pessoal.xlsx
+++ b/data/manual/deducao_pessoal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>state</t>
   </si>
@@ -62,12 +62,6 @@
     <t>se</t>
   </si>
   <si>
-    <t>report not available at SISTN/SICONFI</t>
-  </si>
-  <si>
-    <t>non-standard report and value in thousands</t>
-  </si>
-  <si>
     <t>non-standard report</t>
   </si>
   <si>
@@ -89,7 +83,10 @@
     <t>ba</t>
   </si>
   <si>
-    <t>can't parse page</t>
+    <t>parsing error</t>
+  </si>
+  <si>
+    <t>values in thousands</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,10 +445,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2012</v>
@@ -460,12 +457,12 @@
         <v>2615324900.0900002</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -477,12 +474,12 @@
         <v>860171903.77999997</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -495,13 +492,13 @@
         <v>1860261707.78</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -513,7 +510,7 @@
         <v>679303000</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -535,7 +532,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -547,7 +544,7 @@
         <v>1109635320.51</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
